--- a/CONTRAT #2/ContratV1.xlsx
+++ b/CONTRAT #2/ContratV1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\REMISE\4205B6JR_101_A14_DEVELOPP\1247935\Anthony Gauthier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Combaxe\Combaxe_Utilities\CONTRAT #2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>navigation par tabulation</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Déplacer le timer avec les actions possibles</t>
   </si>
   <si>
-    <t>ajouter deslabel sur barres vie energie et expérience</t>
-  </si>
-  <si>
     <t>0-60</t>
   </si>
   <si>
@@ -72,6 +69,12 @@
   </si>
   <si>
     <t>inventaire sans le magasin (fournir un joueur pleinement configuré dans la BD de test, impact sur les caractéristiques (énergie, vie, force, défense, vitesse), gestion des conflits d'équipement vêtu, ToolTip de mouseover )</t>
+  </si>
+  <si>
+    <t>FINI</t>
+  </si>
+  <si>
+    <t>ajouter des label sur barres vie energie et expérience</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,134 +406,152 @@
     <col min="1" max="1" width="94" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>5</v>

--- a/CONTRAT #2/ContratV1.xlsx
+++ b/CONTRAT #2/ContratV1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>navigation par tabulation</t>
   </si>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +413,9 @@
       <c r="B1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -487,6 +490,9 @@
       <c r="C9">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -498,6 +504,9 @@
       <c r="C10">
         <v>5</v>
       </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -509,6 +518,9 @@
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -533,6 +545,9 @@
       </c>
       <c r="C13">
         <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
